--- a/public/excelop/template/finance_m.xlsx
+++ b/public/excelop/template/finance_m.xlsx
@@ -4,79 +4,61 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550"/>
+    <workbookView windowWidth="28695" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>提前预订单</t>
-  </si>
-  <si>
-    <t>即点即送</t>
-  </si>
-  <si>
-    <t>微信支付</t>
-  </si>
-  <si>
-    <t>支付宝支付</t>
-  </si>
-  <si>
-    <t>货到付款</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+  <si>
+    <t>送餐日期</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>订餐时间</t>
+  </si>
+  <si>
+    <t>A套餐数量</t>
+  </si>
+  <si>
+    <t>B套餐数量</t>
   </si>
   <si>
     <t>总数量</t>
   </si>
   <si>
-    <t>总金额</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.dt%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.num1%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.num2%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.num3%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.num4%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.num5%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.num6%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.num7%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.num8%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.num9%&gt;</t>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.date1%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.cname%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.date2%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.numA%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.numB%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.numTotal%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.priceTotal%&gt;</t>
   </si>
   <si>
     <t>&lt;%forRBegin rs1,i in _data_%&gt;</t>
@@ -90,12 +72,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -109,12 +91,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +260,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -137,169 +456,347 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -349,71 +846,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,122 +1129,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:10">
+    <row r="1" customFormat="1" ht="17.25" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
+    </row>
+    <row r="2" customFormat="1" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="18" spans="1:10">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" ht="17.25" spans="1:11">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
+    <row r="3" customFormat="1" spans="8:8">
+      <c r="H3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="11:11">
-      <c r="K4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/public/excelop/template/finance_m.xlsx
+++ b/public/excelop/template/finance_m.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13230"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>送餐日期</t>
   </si>
@@ -25,6 +25,9 @@
     <t>公司</t>
   </si>
   <si>
+    <t>送餐类别</t>
+  </si>
+  <si>
     <t>订餐时间</t>
   </si>
   <si>
@@ -34,6 +37,12 @@
     <t>B套餐数量</t>
   </si>
   <si>
+    <t>C套餐数量</t>
+  </si>
+  <si>
+    <t>D套餐数量</t>
+  </si>
+  <si>
     <t>总数量</t>
   </si>
   <si>
@@ -46,6 +55,9 @@
     <t>&lt;%=rs1.cname%&gt;</t>
   </si>
   <si>
+    <t>&lt;%=rs1.sendtype%&gt;</t>
+  </si>
+  <si>
     <t>&lt;%=rs1.date2%&gt;</t>
   </si>
   <si>
@@ -53,6 +65,12 @@
   </si>
   <si>
     <t>&lt;%=rs1.numB%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.numC%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.numD%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.numTotal%&gt;</t>
@@ -74,8 +92,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -91,6 +109,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -98,6 +121,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -105,9 +226,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -119,70 +250,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,59 +264,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -268,12 +286,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -286,19 +352,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,139 +412,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,11 +502,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,26 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,26 +580,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,148 +604,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,24 +1147,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="1" customFormat="1" ht="17.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,36 +1188,54 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" customFormat="1" spans="1:8">
+    <row r="2" customFormat="1" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="8:8">
-      <c r="H3" t="s">
-        <v>15</v>
+    <row r="3" customFormat="1" spans="11:11">
+      <c r="K3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/public/excelop/template/finance_m.xlsx
+++ b/public/excelop/template/finance_m.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19392" windowHeight="10992"/>
+    <workbookView windowWidth="20385" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$3</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>送餐日期</t>
   </si>
@@ -31,18 +31,6 @@
     <t>订餐时间</t>
   </si>
   <si>
-    <t>A套餐数量</t>
-  </si>
-  <si>
-    <t>B套餐数量</t>
-  </si>
-  <si>
-    <t>C套餐数量</t>
-  </si>
-  <si>
-    <t>D套餐数量</t>
-  </si>
-  <si>
     <t>总数量</t>
   </si>
   <si>
@@ -59,18 +47,6 @@
   </si>
   <si>
     <t>&lt;%=rs1.date2%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.numA%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.numB%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.numC%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.numD%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.numTotal%&gt;</t>
@@ -88,8 +64,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -103,12 +85,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +249,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -158,9 +472,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -178,10 +734,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -514,30 +1117,28 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.26171875" customWidth="1"/>
-    <col min="2" max="2" width="29.3671875" customWidth="1"/>
-    <col min="3" max="4" width="22.26171875" customWidth="1"/>
-    <col min="5" max="5" width="20.3671875" customWidth="1"/>
-    <col min="6" max="8" width="19.3671875" customWidth="1"/>
-    <col min="9" max="9" width="18.26171875" customWidth="1"/>
-    <col min="10" max="10" width="19.3671875" customWidth="1"/>
+    <col min="1" max="1" width="18.2583333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.3666666666667" customWidth="1"/>
+    <col min="3" max="4" width="22.2583333333333" customWidth="1"/>
+    <col min="5" max="5" width="18.2583333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.65">
+    <row r="1" ht="17.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,62 +1157,38 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="3" spans="7:7">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="K3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <autoFilter ref="A1:G3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>